--- a/files/CHARGING_INFO.xlsx
+++ b/files/CHARGING_INFO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <sheets>
-    <sheet name="parseador" sheetId="1" r:id="rId1"/>
+    <sheet name="PARSEADOR" sheetId="1" r:id="rId1"/>
     <sheet name="PRODUCT_HEADER" sheetId="2" r:id="rId2"/>
     <sheet name="PRODUCT_USAGE_RIGHT" sheetId="3" r:id="rId3"/>
     <sheet name="PRODUCT_CHARGING_CONCEPT" sheetId="4" r:id="rId4"/>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">FORMULA_CHARGING_CONCEPT!$A$1:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'FORMULA_FEE_CONCEPT'!A1:F23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">FORMULA_HEADER!$C$3:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parseador!$A$1:$A$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PARSEADOR!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'PDF_DESC'!A1:D4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'RFS_CHARGING_CONCEPT'!A1:J9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'RFS_HEADER'!A1:E2</definedName>
@@ -378,22 +378,6 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Autor</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <t xml:space="preserve">Autor:
-código de producto</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -782,10 +766,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -816,8 +798,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1149,7 +1132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1847,14 +1830,14 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G30"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1899,10 +1882,10 @@
       <c r="D2" t="str">
         <v>CARTERA</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>36526</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>401768</v>
       </c>
       <c r="G2" t="str">
@@ -1928,10 +1911,10 @@
       <c r="D3" t="str">
         <v>CARTERA</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>36526</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>401768</v>
       </c>
       <c r="G3" t="str">
@@ -1957,10 +1940,10 @@
       <c r="D4" t="str">
         <v>CARTERA</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>36526</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>401768</v>
       </c>
       <c r="G4" t="str">
@@ -1986,10 +1969,10 @@
       <c r="D5" t="str">
         <v>CARTERA</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>36526</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>401768</v>
       </c>
       <c r="G5" t="str">
@@ -2015,10 +1998,10 @@
       <c r="D6" t="str">
         <v>CARTERA</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>36526</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>401768</v>
       </c>
       <c r="G6" t="str">
@@ -2044,10 +2027,10 @@
       <c r="D7" t="str">
         <v>CARTERA</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>36526</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>401768</v>
       </c>
       <c r="G7" t="str">
@@ -2073,10 +2056,10 @@
       <c r="D8" t="str">
         <v>CARTERA</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>36526</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>401768</v>
       </c>
       <c r="G8" t="str">
@@ -2102,10 +2085,10 @@
       <c r="D9" t="str">
         <v>CARTERA</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>36526</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>401768</v>
       </c>
       <c r="G9" t="str">
@@ -2117,6 +2100,35 @@
         <v>RFS0009_CARTERA_100M_100M_RES_DHCP_ONI</v>
       </c>
       <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>1</v>
+      </c>
+      <c r="B10" t="str">
+        <v>TCK0007</v>
+      </c>
+      <c r="C10" t="str">
+        <v>TK - ACTUACION EN SISTEMAS</v>
+      </c>
+      <c r="D10" t="str">
+        <v>ALTA</v>
+      </c>
+      <c r="E10" t="str">
+        <v>01/01/2021</v>
+      </c>
+      <c r="F10" t="str">
+        <v>31/12/2999</v>
+      </c>
+      <c r="G10" t="str">
+        <v>TCK0007_ALTA</v>
+      </c>
+      <c r="H10" t="str">
+        <v>TCK0007_ALTA_TK - ACTUACION EN SISTEMAS</v>
+      </c>
+      <c r="I10" t="str">
         <v>1</v>
       </c>
     </row>
@@ -2124,7 +2136,7 @@
   <autoFilter ref="A1:J9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I10"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -2132,7 +2144,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2332,7 +2344,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B28"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B24"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2713,7 +2725,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2857,7 +2869,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B17"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -3671,7 +3683,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3711,7 +3723,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -4130,6 +4142,12 @@
       <c r="B2" t="str">
         <v>Acceso FTTH</v>
       </c>
+      <c r="D2" s="1">
+        <v>44229</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44594</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -4138,6 +4156,12 @@
       <c r="B3" t="str">
         <v>Acceso FTTH residencial</v>
       </c>
+      <c r="D3" s="1">
+        <v>44229</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44594</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -4146,6 +4170,12 @@
       <c r="B4" t="str">
         <v>Acceso FTTH empresarial</v>
       </c>
+      <c r="D4" s="1">
+        <v>44229</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44594</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -4154,22 +4184,28 @@
       <c r="B5" t="str">
         <v>Operaciones</v>
       </c>
+      <c r="D5" s="1">
+        <v>44229</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44594</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>P0005</v>
+        <v>1</v>
       </c>
       <c r="B6" t="str">
-        <v>Prueba</v>
+        <v>1</v>
       </c>
       <c r="C6" t="str">
         <v>1</v>
       </c>
       <c r="D6" t="str">
-        <v>11/01/1111</v>
+        <v>11/11/2111</v>
       </c>
       <c r="E6" t="str">
-        <v>11/11/1111</v>
+        <v>11/02/2222</v>
       </c>
     </row>
   </sheetData>
@@ -4177,7 +4213,6 @@
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5207,7 +5242,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5250,7 +5285,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -5444,7 +5479,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5487,7 +5522,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K37"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
